--- a/DeliveryNotes/Managing Tasks.xlsx
+++ b/DeliveryNotes/Managing Tasks.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="3" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>UI development</t>
   </si>
@@ -71,6 +66,39 @@
 CRUD operation for Saas Parameter.</t>
   </si>
   <si>
+    <t>SQL Task</t>
+  </si>
+  <si>
+    <t>SAAS customer DB Download</t>
+  </si>
+  <si>
+    <t>1)List Customer Databases 
+2) Download functionality of Backup 
+3) Upload functionality 
+4) Application parameter settings for downlaod and upload size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As per discussion tested file limit for download/upload  - 1GB </t>
+  </si>
+  <si>
+    <t>Add Other Settings and Sort discovery methods</t>
+  </si>
+  <si>
+    <t>1) add other settings to 3rd party intigrations
+2) disable buttons 
+3) add sorting functionality for discovery methods
+4) save sorting order of discovery methods</t>
+  </si>
+  <si>
+    <t>Saas Server Configuration</t>
+  </si>
+  <si>
+    <t>1) Created API to check Server is configured or not
+2) made UI changes to call the API
+3) changed UI to call Prashant's API
+4) Worked on feedback points given by gopichand</t>
+  </si>
+  <si>
     <t>SQL development</t>
   </si>
   <si>
@@ -89,26 +117,33 @@
     <t>Created the Create, Update, Delete records Sps and Get record(s) Sp of NZInfo Table in NzSaas Database</t>
   </si>
   <si>
-    <t>27/04/2021</t>
-  </si>
-  <si>
     <t>Saas Project JOB</t>
   </si>
   <si>
-    <t>29/04/2021</t>
-  </si>
-  <si>
     <t>Created Table to store SaasCustomerledger, Created Sp to get and insert customer rack,user and site count from their respective database into the Saas DB table. Schedule a Job to perform the action daily at 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>Created required Stored Procedures , Functions, Type in NzEnt and NzSaas Database for the Upload and Download DataBase functionality.
+CONFIG_spCreateBackUpAndGetData
+CONFIG_spSaveBakFile</t>
+  </si>
+  <si>
+    <t>1) Created API for Restoring NzSaas Database (4 methods - 1 in SaasService.svc.cs and 3 in NzServermangerment..cs)
+2) Added new DataSource column to SAAS.instances table and updated Stored Procedure(SAAS_spSetServerInstanceForSaas) to Add/Update DataSource column value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +158,159 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,8 +323,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -146,34 +518,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -431,34 +1090,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.42592592592593" customWidth="1"/>
+    <col min="2" max="2" width="12.287037037037" customWidth="1"/>
+    <col min="3" max="3" width="40.8611111111111" customWidth="1"/>
+    <col min="4" max="4" width="17.287037037037" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="53.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="53.7109375" customWidth="1"/>
+    <col min="6" max="7" width="10.287037037037" customWidth="1"/>
+    <col min="9" max="9" width="53.8611111111111" style="1" customWidth="1"/>
+    <col min="10" max="10" width="53.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" ht="21" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -486,21 +1146,21 @@
         <v>7</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45">
+    <row r="4" ht="43.2" spans="1:10">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" s="4">
         <v>44287</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
@@ -516,7 +1176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="60">
+    <row r="5" ht="57.6" spans="1:9">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -536,57 +1196,111 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1003</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="57.6" spans="1:10">
       <c r="A7">
         <v>1004</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="B7" s="4">
+        <v>44316</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4">
+        <v>44326</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="57.6" spans="1:9">
       <c r="A8">
         <v>1005</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="B8" s="4">
+        <v>44329</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4">
+        <v>44331</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="57.6" spans="1:9">
       <c r="A9">
         <v>1006</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="B9" s="4">
+        <v>44335</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
+        <v>44336</v>
+      </c>
+      <c r="F9" s="4">
+        <v>44341</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10">
         <v>1007</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:1">
       <c r="A11">
         <v>1008</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:1">
       <c r="A12">
         <v>1009</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:1">
       <c r="A13">
         <v>1010</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:1">
       <c r="A14">
         <v>1011</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:1">
       <c r="A15">
         <v>1012</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:1">
       <c r="A16">
         <v>1013</v>
       </c>
@@ -648,33 +1362,35 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="53.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="53.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42592592592593" customWidth="1"/>
+    <col min="2" max="2" width="12.287037037037" customWidth="1"/>
+    <col min="3" max="3" width="51.1388888888889" customWidth="1"/>
+    <col min="4" max="4" width="16.8611111111111" customWidth="1"/>
+    <col min="5" max="5" width="19.4259259259259" customWidth="1"/>
+    <col min="6" max="7" width="10.287037037037" customWidth="1"/>
+    <col min="9" max="9" width="53.8611111111111" style="1" customWidth="1"/>
+    <col min="10" max="10" width="53.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" ht="21" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -700,14 +1416,14 @@
         <v>7</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="75">
+    <row r="4" ht="72" spans="1:10">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -715,22 +1431,22 @@
         <v>44287</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4">
         <v>44298</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
+    <row r="5" ht="28.8" spans="1:9">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -738,84 +1454,117 @@
         <v>44307</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4">
         <v>44308</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="60">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" ht="57.6" spans="1:9">
       <c r="A6">
         <v>1003</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
+      <c r="B6" s="4">
+        <v>44313</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="4">
+        <v>44315</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="72" spans="1:9">
       <c r="A7">
         <v>1004</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="B7" s="4">
+        <v>44316</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4">
+        <v>44326</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8">
         <v>1005</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" ht="72" spans="1:9">
       <c r="A9">
         <v>1006</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="B9" s="4">
+        <v>44329</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4">
+        <v>44336</v>
+      </c>
+      <c r="F9" s="4">
+        <v>44341</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10">
         <v>1007</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:1">
       <c r="A11">
         <v>1008</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:1">
       <c r="A12">
         <v>1009</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:1">
       <c r="A13">
         <v>1010</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:1">
       <c r="A14">
         <v>1011</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:1">
       <c r="A15">
         <v>1012</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:1">
       <c r="A16">
         <v>1013</v>
       </c>
@@ -877,5 +1626,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DeliveryNotes/Managing Tasks.xlsx
+++ b/DeliveryNotes/Managing Tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="23040" windowHeight="9335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>UI development</t>
   </si>
@@ -96,7 +96,17 @@
     <t>1) Created API to check Server is configured or not
 2) made UI changes to call the API
 3) changed UI to call Prashant's API
-4) Worked on feedback points given by gopichand</t>
+4) Worked on feedback points given by gopichand
+5) Created Container form with name Saas_Server_Container
+6) Changed UI using newly created form</t>
+  </si>
+  <si>
+    <t>Property Grid tooltip styling</t>
+  </si>
+  <si>
+    <t>1) changed default tooltip with custom tooltip
+2) checked all form location where property grid is used
+3) updated new CSS in style.override.css file for common use</t>
   </si>
   <si>
     <t>SQL development</t>
@@ -130,6 +140,9 @@
   <si>
     <t>1) Created API for Restoring NzSaas Database (4 methods - 1 in SaasService.svc.cs and 3 in NzServermangerment..cs)
 2) Added new DataSource column to SAAS.instances table and updated Stored Procedure(SAAS_spSetServerInstanceForSaas) to Add/Update DataSource column value</t>
+  </si>
+  <si>
+    <t>UI-task</t>
   </si>
 </sst>
 </file>
@@ -137,11 +150,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -166,6 +179,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -180,11 +201,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,38 +248,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -251,52 +271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,6 +284,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -325,91 +338,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,91 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,8 +535,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,7 +545,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,6 +576,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,30 +621,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -601,166 +629,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -771,7 +784,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1098,12 +1111,12 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1247,7 +1260,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" ht="57.6" spans="1:9">
+    <row r="9" ht="86.4" spans="1:9">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -1266,13 +1279,31 @@
       <c r="F9" s="4">
         <v>44341</v>
       </c>
+      <c r="G9" s="4">
+        <v>44344</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" ht="43.2" spans="1:9">
       <c r="A10">
         <v>1007</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44342</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>44344</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -1372,8 +1403,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1390,7 +1421,7 @@
   <sheetData>
     <row r="1" ht="21" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1431,16 +1462,16 @@
         <v>44287</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4">
         <v>44298</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -1454,16 +1485,16 @@
         <v>44307</v>
       </c>
       <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
       </c>
       <c r="E5" s="4">
         <v>44308</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" ht="57.6" spans="1:9">
@@ -1474,16 +1505,16 @@
         <v>44313</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4">
         <v>44315</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" ht="72" spans="1:9">
@@ -1497,13 +1528,13 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4">
         <v>44326</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1522,7 +1553,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4">
         <v>44336</v>
@@ -1531,12 +1562,15 @@
         <v>44341</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>1007</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1">

--- a/DeliveryNotes/Managing Tasks.xlsx
+++ b/DeliveryNotes/Managing Tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>UI development</t>
   </si>
@@ -109,6 +109,39 @@
 3) updated new CSS in style.override.css file for common use</t>
   </si>
   <si>
+    <t>Grid Extender-control enhancement</t>
+  </si>
+  <si>
+    <t>1) Hide Column,Sort column,Move column,tooltip on column
+2) Get and Set Column width and order
+3) Export and Delete and Edit function 
+4) Working on dynamic pagination as discussed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reoderable,Tooltip,Export,Delete and Edit columnMenu properties and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Events like reorderColumn,resizeColumn,remove,save and dataBinding</t>
+    </r>
+  </si>
+  <si>
     <t>SQL development</t>
   </si>
   <si>
@@ -143,6 +176,9 @@
   </si>
   <si>
     <t>UI-task</t>
+  </si>
+  <si>
+    <t>Added 7 Column in NZ.ValueByName Table and updated the 2 Sps to insert and update the column Values</t>
   </si>
 </sst>
 </file>
@@ -150,13 +186,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,62 +215,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,6 +260,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -257,67 +307,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,13 +380,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,31 +464,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,127 +554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,11 +574,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,30 +623,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -600,6 +633,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,161 +677,167 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1111,12 +1159,12 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1173,7 +1221,7 @@
       <c r="B4" s="4">
         <v>44287</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
@@ -1306,9 +1354,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" ht="57.6" spans="1:10">
       <c r="A11">
         <v>1008</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44349</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4">
+        <v>44355</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -1403,8 +1469,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1421,7 +1487,7 @@
   <sheetData>
     <row r="1" ht="21" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1462,16 +1528,16 @@
         <v>44287</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4">
         <v>44298</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -1485,16 +1551,16 @@
         <v>44307</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4">
         <v>44308</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" ht="57.6" spans="1:9">
@@ -1505,16 +1571,16 @@
         <v>44313</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6" s="4">
         <v>44315</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="72" spans="1:9">
@@ -1528,13 +1594,13 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" s="4">
         <v>44326</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1542,7 +1608,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="9" ht="72" spans="1:9">
+    <row r="9" ht="72" spans="1:10">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -1553,7 +1619,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" s="4">
         <v>44336</v>
@@ -1562,20 +1628,36 @@
         <v>44341</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
         <v>1007</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" spans="1:9">
       <c r="A11">
         <v>1008</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44349</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4">
+        <v>44355</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:1">

--- a/DeliveryNotes/Managing Tasks.xlsx
+++ b/DeliveryNotes/Managing Tasks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>UI development</t>
   </si>
@@ -115,31 +115,19 @@
     <t>1) Hide Column,Sort column,Move column,tooltip on column
 2) Get and Set Column width and order
 3) Export and Delete and Edit function 
-4) Working on dynamic pagination as discussed</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Reoderable,Tooltip,Export,Delete and Edit columnMenu properties and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+4) Working on dynamic pagination as discussed
+5) Add default CheckBox control beside Delete Button in current grid extender.
+6) Add a Property textbox which will take the number of columns which are not editable.    
+7) Add Filter option like selecting number of fields for search in.
+8) Given functionality for export all records to PDF/Excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reoderable,Tooltip,Export,Delete and Edit columnMenu properties and 
+Events like reorderColumn,resizeColumn,remove,save and dataBinding
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Events like reorderColumn,resizeColumn,remove,save and dataBinding</t>
-    </r>
+  </si>
+  <si>
+    <t>Listview Extender</t>
   </si>
   <si>
     <t>SQL development</t>
@@ -186,11 +174,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -221,8 +209,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -230,7 +248,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,107 +308,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,6 +368,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -392,79 +404,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,91 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,6 +559,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -592,17 +589,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,6 +610,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -633,15 +630,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,164 +662,161 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1160,11 +1145,11 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1221,7 +1206,7 @@
       <c r="B4" s="4">
         <v>44287</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
@@ -1354,7 +1339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" ht="57.6" spans="1:10">
+    <row r="11" ht="144" spans="1:10">
       <c r="A11">
         <v>1008</v>
       </c>
@@ -1370,10 +1355,13 @@
       <c r="E11" s="4">
         <v>44355</v>
       </c>
+      <c r="F11" s="4">
+        <v>44363</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1382,9 +1370,18 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>1010</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44364</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1487,7 +1484,7 @@
   <sheetData>
     <row r="1" ht="21" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1528,16 +1525,16 @@
         <v>44287</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="4">
         <v>44298</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -1551,16 +1548,16 @@
         <v>44307</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4">
         <v>44308</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="57.6" spans="1:9">
@@ -1571,16 +1568,16 @@
         <v>44313</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4">
         <v>44315</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" ht="72" spans="1:9">
@@ -1594,13 +1591,13 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4">
         <v>44326</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1619,7 +1616,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4">
         <v>44336</v>
@@ -1628,16 +1625,16 @@
         <v>44341</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
         <v>1007</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:9">
@@ -1651,13 +1648,13 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4">
         <v>44355</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:1">

--- a/DeliveryNotes/Managing Tasks.xlsx
+++ b/DeliveryNotes/Managing Tasks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>UI development</t>
   </si>
@@ -130,6 +130,12 @@
     <t>Listview Extender</t>
   </si>
   <si>
+    <t>1) Added New List Extender from database with properties and events
+2) Search functionality
+3) Sorting functionality
+4) Buttons like add,delete clone added</t>
+  </si>
+  <si>
     <t>SQL development</t>
   </si>
   <si>
@@ -174,11 +180,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -210,12 +216,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -225,45 +261,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,6 +291,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -293,61 +321,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,6 +374,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,144 +542,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -530,25 +554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,9 +570,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,15 +590,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,6 +633,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -651,159 +659,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -814,7 +820,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1145,11 +1151,11 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1370,7 +1376,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" ht="72" spans="1:9">
       <c r="A13">
         <v>1010</v>
       </c>
@@ -1382,6 +1388,12 @@
       </c>
       <c r="D13" t="s">
         <v>11</v>
+      </c>
+      <c r="E13" s="4">
+        <v>44368</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1484,7 +1496,7 @@
   <sheetData>
     <row r="1" ht="21" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1525,16 +1537,16 @@
         <v>44287</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="4">
         <v>44298</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -1548,16 +1560,16 @@
         <v>44307</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4">
         <v>44308</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" ht="57.6" spans="1:9">
@@ -1568,16 +1580,16 @@
         <v>44313</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="4">
         <v>44315</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" ht="72" spans="1:9">
@@ -1591,13 +1603,13 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4">
         <v>44326</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1616,7 +1628,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="4">
         <v>44336</v>
@@ -1625,7 +1637,7 @@
         <v>44341</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1634,7 +1646,7 @@
         <v>1007</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:9">
@@ -1648,13 +1660,13 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="4">
         <v>44355</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:1">

--- a/DeliveryNotes/Managing Tasks.xlsx
+++ b/DeliveryNotes/Managing Tasks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>UI development</t>
   </si>
@@ -119,7 +119,8 @@
 5) Add default CheckBox control beside Delete Button in current grid extender.
 6) Add a Property textbox which will take the number of columns which are not editable.    
 7) Add Filter option like selecting number of fields for search in.
-8) Given functionality for export all records to PDF/Excel</t>
+8) Given functionality for export all records to PDF/Excel
+9) Export checked records only</t>
   </si>
   <si>
     <t xml:space="preserve">Reoderable,Tooltip,Export,Delete and Edit columnMenu properties and 
@@ -134,6 +135,9 @@
 2) Search functionality
 3) Sorting functionality
 4) Buttons like add,delete clone added</t>
+  </si>
+  <si>
+    <t>SQL Solution and Services-UI devlopment</t>
   </si>
   <si>
     <t>SQL development</t>
@@ -180,11 +184,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -216,6 +220,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -223,7 +234,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,52 +242,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,6 +279,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -298,13 +294,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -329,6 +318,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -338,7 +341,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,8 +355,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,85 +378,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,97 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,17 +569,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -665,151 +658,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -820,7 +824,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1151,11 +1155,11 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1345,7 +1349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" ht="144" spans="1:10">
+    <row r="11" ht="158.4" spans="1:10">
       <c r="A11">
         <v>1008</v>
       </c>
@@ -1363,6 +1367,9 @@
       </c>
       <c r="F11" s="4">
         <v>44363</v>
+      </c>
+      <c r="G11" s="4">
+        <v>44369</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>27</v>
@@ -1396,9 +1403,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>1011</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44369</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -1478,8 +1494,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1496,7 +1512,7 @@
   <sheetData>
     <row r="1" ht="21" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1537,16 +1553,16 @@
         <v>44287</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="4">
         <v>44298</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -1560,16 +1576,16 @@
         <v>44307</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4">
         <v>44308</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" ht="57.6" spans="1:9">
@@ -1580,16 +1596,16 @@
         <v>44313</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="4">
         <v>44315</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" ht="72" spans="1:9">
@@ -1603,13 +1619,13 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="4">
         <v>44326</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1628,7 +1644,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="4">
         <v>44336</v>
@@ -1637,7 +1653,7 @@
         <v>44341</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1646,7 +1662,7 @@
         <v>1007</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:9">
@@ -1660,13 +1676,13 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4">
         <v>44355</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:1">

--- a/DeliveryNotes/Managing Tasks.xlsx
+++ b/DeliveryNotes/Managing Tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="18468" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>UI development</t>
   </si>
@@ -140,6 +140,12 @@
     <t>SQL Solution and Services-UI devlopment</t>
   </si>
   <si>
+    <t>1) Add new control sidemenu with default facility
+2) API called for get all solution and services
+3) UI changes as described in the document
+4) Worked on feedback points like add click event for settings and help button,one solution should open at a time, click event for item selection, remove up-down icon.</t>
+  </si>
+  <si>
     <t>SQL development</t>
   </si>
   <si>
@@ -184,9 +190,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
@@ -219,6 +225,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -226,8 +248,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,32 +263,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,6 +325,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -319,14 +341,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,30 +356,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,73 +384,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,108 +565,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +589,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,21 +656,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -672,7 +678,10 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,16 +690,13 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,121 +705,121 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,11 +1161,11 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1403,7 +1409,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" ht="86.4" spans="1:9">
       <c r="A14">
         <v>1011</v>
       </c>
@@ -1415,6 +1421,12 @@
       </c>
       <c r="D14" t="s">
         <v>11</v>
+      </c>
+      <c r="E14" s="4">
+        <v>44375</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -1512,7 +1524,7 @@
   <sheetData>
     <row r="1" ht="21" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1553,16 +1565,16 @@
         <v>44287</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4">
         <v>44298</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -1576,16 +1588,16 @@
         <v>44307</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="4">
         <v>44308</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" ht="57.6" spans="1:9">
@@ -1596,16 +1608,16 @@
         <v>44313</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4">
         <v>44315</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="72" spans="1:9">
@@ -1619,13 +1631,13 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4">
         <v>44326</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1644,7 +1656,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="4">
         <v>44336</v>
@@ -1653,7 +1665,7 @@
         <v>44341</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1662,7 +1674,7 @@
         <v>1007</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:9">
@@ -1676,13 +1688,13 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4">
         <v>44355</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:1">

--- a/DeliveryNotes/Managing Tasks.xlsx
+++ b/DeliveryNotes/Managing Tasks.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9335"/>
+    <workbookView windowWidth="28800" windowHeight="12495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="3" r:id="rId1"/>
     <sheet name="SQL" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>UI development</t>
   </si>
@@ -184,16 +184,40 @@
   <si>
     <t>Added 7 Column in NZ.ValueByName Table and updated the 2 Sps to insert and update the column Values</t>
   </si>
+  <si>
+    <t>14/06/2021</t>
+  </si>
+  <si>
+    <t>Purge and Optimize SM Application</t>
+  </si>
+  <si>
+    <t>16/06/2021</t>
+  </si>
+  <si>
+    <t>18/06/2021</t>
+  </si>
+  <si>
+    <t>1) Document is provided which has both SQL and WebService changes. Divided into phases. 
+2) Phase 1 :- SQL side changes, Create Tracemethod and supported StoredProcedure to update the existing all SP and store the record in Tracemethod if they are used in the 
+3) Create the Delete record (SPs,Function and Table) SPS which are not in Tracemethod table.</t>
+  </si>
+  <si>
+    <t>As per the discussion we listed out the 48 Sps which are not able to alter the SP. So, as per the discussion with Yadav -  their team will go through and take necessary action on those SPs and gave us new Databse where we can execute the SP and update the scripts with required  changes after testing. Will then provide to yadav to test whole application and then we can take the further phase with Webservice and purging the data from the database and application</t>
+  </si>
+  <si>
+    <t>1) Document is provided and need to create 4 tables + 1 testing table and respective Sps as mentioned in the document and done testing with provided testing data as well as manually added data
+2) Work on the feedback points and new addition to the SPs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="23">
@@ -225,6 +249,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -233,6 +308,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -241,13 +385,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -255,119 +392,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -384,19 +408,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,163 +570,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,6 +599,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -593,17 +637,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,7 +665,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,179 +685,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,7 +1184,7 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1168,16 +1192,16 @@
       <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.42592592592593" customWidth="1"/>
-    <col min="2" max="2" width="12.287037037037" customWidth="1"/>
-    <col min="3" max="3" width="40.8611111111111" customWidth="1"/>
-    <col min="4" max="4" width="17.287037037037" customWidth="1"/>
+    <col min="1" max="1" width="9.42857142857143" customWidth="1"/>
+    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="40.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="7" width="10.287037037037" customWidth="1"/>
-    <col min="9" max="9" width="53.8611111111111" style="1" customWidth="1"/>
-    <col min="10" max="10" width="53.712962962963" customWidth="1"/>
+    <col min="6" max="7" width="10.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="53.8571428571429" style="1" customWidth="1"/>
+    <col min="10" max="10" width="53.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:1">
@@ -1215,7 +1239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:10">
+    <row r="4" ht="45" spans="1:10">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -1238,7 +1262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="57.6" spans="1:9">
+    <row r="5" ht="60" spans="1:9">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -1266,7 +1290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="57.6" spans="1:10">
+    <row r="7" ht="75" spans="1:10">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -1289,7 +1313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="57.6" spans="1:9">
+    <row r="8" ht="60" spans="1:9">
       <c r="A8">
         <v>1005</v>
       </c>
@@ -1309,7 +1333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" ht="86.4" spans="1:9">
+    <row r="9" ht="105" spans="1:9">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -1335,7 +1359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="43.2" spans="1:9">
+    <row r="10" ht="60" spans="1:9">
       <c r="A10">
         <v>1007</v>
       </c>
@@ -1355,7 +1379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" ht="158.4" spans="1:10">
+    <row r="11" ht="195" spans="1:10">
       <c r="A11">
         <v>1008</v>
       </c>
@@ -1389,7 +1413,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="13" ht="72" spans="1:9">
+    <row r="13" ht="75" spans="1:9">
       <c r="A13">
         <v>1010</v>
       </c>
@@ -1409,7 +1433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" ht="86.4" spans="1:9">
+    <row r="14" ht="90" spans="1:9">
       <c r="A14">
         <v>1011</v>
       </c>
@@ -1506,20 +1530,20 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.42592592592593" customWidth="1"/>
-    <col min="2" max="2" width="12.287037037037" customWidth="1"/>
-    <col min="3" max="3" width="51.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="16.8611111111111" customWidth="1"/>
-    <col min="5" max="5" width="19.4259259259259" customWidth="1"/>
-    <col min="6" max="7" width="10.287037037037" customWidth="1"/>
-    <col min="9" max="9" width="53.8611111111111" style="1" customWidth="1"/>
-    <col min="10" max="10" width="53.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="9.42857142857143" customWidth="1"/>
+    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="51.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="16.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="19.4285714285714" customWidth="1"/>
+    <col min="6" max="7" width="10.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="53.8571428571429" style="1" customWidth="1"/>
+    <col min="10" max="10" width="53.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:1">
@@ -1557,7 +1581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="72" spans="1:10">
+    <row r="4" ht="75" spans="1:10">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -1580,7 +1604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:9">
+    <row r="5" ht="30" spans="1:9">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -1600,7 +1624,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" ht="57.6" spans="1:9">
+    <row r="6" ht="60" spans="1:9">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -1620,7 +1644,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" ht="72" spans="1:9">
+    <row r="7" ht="75" spans="1:9">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -1645,7 +1669,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="9" ht="72" spans="1:10">
+    <row r="9" ht="90" spans="1:10">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -1677,7 +1701,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" ht="28.8" spans="1:9">
+    <row r="11" ht="30" spans="1:9">
       <c r="A11">
         <v>1008</v>
       </c>
@@ -1697,9 +1721,30 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" ht="120" spans="1:10">
       <c r="A12">
         <v>1009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -1707,9 +1752,21 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" ht="75" spans="1:9">
       <c r="A14">
         <v>1011</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44369</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:1">

--- a/DeliveryNotes/Managing Tasks.xlsx
+++ b/DeliveryNotes/Managing Tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" activeTab="1"/>
+    <workbookView windowWidth="18468" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="3" r:id="rId1"/>
@@ -143,7 +143,9 @@
     <t>1) Add new control sidemenu with default facility
 2) API called for get all solution and services
 3) UI changes as described in the document
-4) Worked on feedback points like add click event for settings and help button,one solution should open at a time, click event for item selection, remove up-down icon.</t>
+4) Worked on feedback points like add click event for settings and help button,one solution should open at a time, click event for item selection, remove up-down icon.
+5) Add reorder button
+6) open popup with defied functionality like sort services,hide icons,save to DB functionality.</t>
   </si>
   <si>
     <t>SQL development</t>
@@ -214,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="23">
@@ -249,6 +251,142 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,142 +394,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -408,187 +410,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,22 +604,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,26 +643,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,6 +667,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -699,151 +690,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,24 +1186,24 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.42857142857143" customWidth="1"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="40.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="17.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="9.42592592592593" customWidth="1"/>
+    <col min="2" max="2" width="12.287037037037" customWidth="1"/>
+    <col min="3" max="3" width="40.8611111111111" customWidth="1"/>
+    <col min="4" max="4" width="17.287037037037" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="7" width="10.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="53.8571428571429" style="1" customWidth="1"/>
-    <col min="10" max="10" width="53.7142857142857" customWidth="1"/>
+    <col min="6" max="7" width="10.287037037037" customWidth="1"/>
+    <col min="9" max="9" width="53.8611111111111" style="1" customWidth="1"/>
+    <col min="10" max="10" width="53.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:1">
@@ -1239,7 +1241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="45" spans="1:10">
+    <row r="4" ht="43.2" spans="1:10">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -1262,7 +1264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="60" spans="1:9">
+    <row r="5" ht="57.6" spans="1:9">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -1290,7 +1292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="75" spans="1:10">
+    <row r="7" ht="57.6" spans="1:10">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -1313,7 +1315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="60" spans="1:9">
+    <row r="8" ht="57.6" spans="1:9">
       <c r="A8">
         <v>1005</v>
       </c>
@@ -1333,7 +1335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" ht="105" spans="1:9">
+    <row r="9" ht="86.4" spans="1:9">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -1359,7 +1361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="60" spans="1:9">
+    <row r="10" ht="43.2" spans="1:9">
       <c r="A10">
         <v>1007</v>
       </c>
@@ -1379,7 +1381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" ht="195" spans="1:10">
+    <row r="11" ht="158.4" spans="1:10">
       <c r="A11">
         <v>1008</v>
       </c>
@@ -1413,7 +1415,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="13" ht="75" spans="1:9">
+    <row r="13" ht="72" spans="1:9">
       <c r="A13">
         <v>1010</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" ht="90" spans="1:9">
+    <row r="14" ht="129.6" spans="1:9">
       <c r="A14">
         <v>1011</v>
       </c>
@@ -1448,6 +1450,9 @@
       </c>
       <c r="E14" s="4">
         <v>44375</v>
+      </c>
+      <c r="F14" s="4">
+        <v>44378</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>32</v>
@@ -1530,20 +1535,20 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.42857142857143" customWidth="1"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="51.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="16.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="19.4285714285714" customWidth="1"/>
-    <col min="6" max="7" width="10.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="53.8571428571429" style="1" customWidth="1"/>
-    <col min="10" max="10" width="53.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="9.42592592592593" customWidth="1"/>
+    <col min="2" max="2" width="12.287037037037" customWidth="1"/>
+    <col min="3" max="3" width="51.1388888888889" customWidth="1"/>
+    <col min="4" max="4" width="16.8611111111111" customWidth="1"/>
+    <col min="5" max="5" width="19.4259259259259" customWidth="1"/>
+    <col min="6" max="7" width="10.287037037037" customWidth="1"/>
+    <col min="9" max="9" width="53.8611111111111" style="1" customWidth="1"/>
+    <col min="10" max="10" width="53.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:1">
@@ -1581,7 +1586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="75" spans="1:10">
+    <row r="4" ht="72" spans="1:10">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -1604,7 +1609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="30" spans="1:9">
+    <row r="5" ht="28.8" spans="1:9">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -1624,7 +1629,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" ht="60" spans="1:9">
+    <row r="6" ht="57.6" spans="1:9">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -1644,7 +1649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" ht="75" spans="1:9">
+    <row r="7" ht="72" spans="1:9">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -1669,7 +1674,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="9" ht="90" spans="1:10">
+    <row r="9" ht="72" spans="1:10">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -1701,7 +1706,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" ht="30" spans="1:9">
+    <row r="11" ht="28.8" spans="1:9">
       <c r="A11">
         <v>1008</v>
       </c>
@@ -1721,7 +1726,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" ht="120" spans="1:10">
+    <row r="12" ht="115.2" spans="1:10">
       <c r="A12">
         <v>1009</v>
       </c>
@@ -1752,7 +1757,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="14" ht="75" spans="1:9">
+    <row r="14" ht="57.6" spans="1:9">
       <c r="A14">
         <v>1011</v>
       </c>
